--- a/teaching/traditional_assets/database/data/israel/israel_environmental_waste_services.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_environmental_waste_services.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.1393513513513513</v>
+        <v>-0.2167883211678832</v>
       </c>
       <c r="H2">
-        <v>0.03124324324324324</v>
+        <v>-0.4598540145985401</v>
       </c>
       <c r="I2">
-        <v>-0.05891891891891892</v>
+        <v>-0.6591240875912409</v>
       </c>
       <c r="J2">
-        <v>-0.05891891891891892</v>
+        <v>-0.6591240875912409</v>
       </c>
       <c r="K2">
-        <v>-1.92</v>
+        <v>-11.3</v>
       </c>
       <c r="L2">
-        <v>-0.1037837837837838</v>
+        <v>-0.8248175182481753</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.74</v>
+        <v>4.53</v>
       </c>
       <c r="V2">
-        <v>0.1543010752688172</v>
+        <v>0.08612167300380229</v>
       </c>
       <c r="W2">
-        <v>0.07966804979253111</v>
+        <v>-0.5650000000000001</v>
       </c>
       <c r="X2">
-        <v>0.08704485901299379</v>
+        <v>0.06068853771413049</v>
       </c>
       <c r="Y2">
-        <v>-0.007376809220462674</v>
+        <v>-0.6256885377141306</v>
       </c>
       <c r="Z2">
-        <v>2.609308885754586</v>
+        <v>0.6536259541984732</v>
       </c>
       <c r="AA2">
-        <v>-0.1537376586741891</v>
+        <v>-0.4308206106870229</v>
       </c>
       <c r="AB2">
-        <v>0.07891716139681593</v>
+        <v>0.05668744013286641</v>
       </c>
       <c r="AC2">
-        <v>-0.232654820071005</v>
+        <v>-0.4875080508198893</v>
       </c>
       <c r="AD2">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="AG2">
-        <v>0.96</v>
+        <v>2.04</v>
       </c>
       <c r="AH2">
-        <v>0.1526195899772209</v>
+        <v>0.1110359979719452</v>
       </c>
       <c r="AI2">
-        <v>0.250936329588015</v>
+        <v>0.4101123595505618</v>
       </c>
       <c r="AJ2">
-        <v>0.02515723270440251</v>
+        <v>0.03733528550512445</v>
       </c>
       <c r="AK2">
-        <v>0.04580152671755724</v>
+        <v>0.1775456919060052</v>
       </c>
       <c r="AL2">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.05</v>
+        <v>-0.352</v>
       </c>
       <c r="AN2">
-        <v>-13.4</v>
-      </c>
-      <c r="AO2">
-        <v>-1.038095238095238</v>
+        <v>-0.7283813747228381</v>
       </c>
       <c r="AP2">
-        <v>-1.92</v>
+        <v>-0.2261640798226164</v>
       </c>
       <c r="AQ2">
-        <v>-1.038095238095238</v>
+        <v>25.65340909090909</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +713,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1393513513513513</v>
+        <v>-0.2167883211678832</v>
       </c>
       <c r="H3">
-        <v>0.03124324324324324</v>
+        <v>-0.4598540145985401</v>
       </c>
       <c r="I3">
-        <v>-0.05891891891891892</v>
+        <v>-0.6591240875912409</v>
       </c>
       <c r="J3">
-        <v>-0.05891891891891892</v>
+        <v>-0.6591240875912409</v>
       </c>
       <c r="K3">
-        <v>-1.92</v>
+        <v>-11.3</v>
       </c>
       <c r="L3">
-        <v>-0.1037837837837838</v>
+        <v>-0.8248175182481753</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +752,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5.74</v>
+        <v>4.53</v>
       </c>
       <c r="V3">
-        <v>0.1543010752688172</v>
+        <v>0.08612167300380229</v>
       </c>
       <c r="W3">
-        <v>0.07966804979253111</v>
+        <v>-0.5650000000000001</v>
       </c>
       <c r="X3">
-        <v>0.08704485901299379</v>
+        <v>0.06068853771413049</v>
       </c>
       <c r="Y3">
-        <v>-0.007376809220462674</v>
+        <v>-0.6256885377141306</v>
       </c>
       <c r="Z3">
-        <v>2.609308885754586</v>
+        <v>0.6536259541984732</v>
       </c>
       <c r="AA3">
-        <v>-0.1537376586741891</v>
+        <v>-0.4308206106870229</v>
       </c>
       <c r="AB3">
-        <v>0.07891716139681593</v>
+        <v>0.05668744013286641</v>
       </c>
       <c r="AC3">
-        <v>-0.232654820071005</v>
+        <v>-0.4875080508198893</v>
       </c>
       <c r="AD3">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="AG3">
-        <v>0.96</v>
+        <v>2.04</v>
       </c>
       <c r="AH3">
-        <v>0.1526195899772209</v>
+        <v>0.1110359979719452</v>
       </c>
       <c r="AI3">
-        <v>0.250936329588015</v>
+        <v>0.4101123595505618</v>
       </c>
       <c r="AJ3">
-        <v>0.02515723270440251</v>
+        <v>0.03733528550512445</v>
       </c>
       <c r="AK3">
-        <v>0.04580152671755724</v>
+        <v>0.1775456919060052</v>
       </c>
       <c r="AL3">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.05</v>
+        <v>-0.352</v>
       </c>
       <c r="AN3">
-        <v>-13.4</v>
-      </c>
-      <c r="AO3">
-        <v>-1.038095238095238</v>
+        <v>-0.7283813747228381</v>
       </c>
       <c r="AP3">
-        <v>-1.92</v>
+        <v>-0.2261640798226164</v>
       </c>
       <c r="AQ3">
-        <v>-1.038095238095238</v>
+        <v>25.65340909090909</v>
       </c>
     </row>
   </sheetData>
